--- a/biology/Botanique/Bombax_ceiba/Bombax_ceiba.xlsx
+++ b/biology/Botanique/Bombax_ceiba/Bombax_ceiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombax ceiba, l'un des fromagers, encore appelé Fromager rouge ou Kapokier rouge, est une espèce de grand arbre tropical de la famille des Bombacaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 Cette espèce est originaire d'Asie tropicale et d'Océanie. Elle peut être cultivée dans les jardins méditerranéens.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre mesure jusqu'à 25 à 40 m de haut. Les grands spécimens ont souvent le tronc renflé et des racines-contreforts robustes.
 C'est un arbre à feuilles caduques : il fleurit pendant la saison sèche, lorsqu'il n'a plus de feuilles, de février à mars.
@@ -550,12 +564,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois connu sous le nom de Semul est léger, similaire au balsa et il est utilisé pour faire des allumettes.
-Les fibres cotonneuses enrobant la graine peuvent servir à la production de kapok pour faire des coussins et des matelas (comme chez beaucoup d'arbres de la famille des Bombacaceae). A noter cependant que le coton de ses fruits est de qualité inférieure à celui du véritable Arbre à kapok Ceiba pentandra[1].
-L'huile des graines est comestible, le tourteau sert de nourriture pour les animaux. Les animaux sauvages aiment manger les fleurs tombées[2].
-Cette plante est utilisée pour son pouvoir anti-angiogénique dans la médecine traditionnelle viêt[3].
+Les fibres cotonneuses enrobant la graine peuvent servir à la production de kapok pour faire des coussins et des matelas (comme chez beaucoup d'arbres de la famille des Bombacaceae). A noter cependant que le coton de ses fruits est de qualité inférieure à celui du véritable Arbre à kapok Ceiba pentandra.
+L'huile des graines est comestible, le tourteau sert de nourriture pour les animaux. Les animaux sauvages aiment manger les fleurs tombées.
+Cette plante est utilisée pour son pouvoir anti-angiogénique dans la médecine traditionnelle viêt.
 </t>
         </is>
       </c>
